--- a/Spraw3/lab3.xlsx
+++ b/Spraw3/lab3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\Programy\FIZ31\Spraw3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnb\Documents\Uczelnia\Semestr 3\FIZ31\Spraw3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B023E99-D21B-44DB-BDE4-4586DA98AF6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32CD32E-2590-4C07-813D-58BABEAA4666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="6">
   <si>
     <t>Temp[C]</t>
   </si>
@@ -104,10 +104,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutralny" xfId="2" builtinId="28"/>
@@ -749,7 +750,703 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>t</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="3.9245928725468844E-2"/>
+                      <c:h val="3.2808398950131233E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-1350-4601-BE6D-9A507AD9A2EB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="General" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$C$51:$C$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$D$51:$D$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>3.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1350-4601-BE6D-9A507AD9A2EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1501332384"/>
+        <c:axId val="1443813792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1501332384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                  <a:alpha val="32000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1443813792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1443813792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="32000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1501332384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1302,6 +1999,519 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="237">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="32000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:alpha val="32000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="rnd"/>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1335,6 +2545,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>383615</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>86351</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>161611</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE71730-0BF6-4928-AEF0-7C7D5B42AA53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1606,15 +2852,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B6:E198"/>
+  <dimension ref="B6:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="B45" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -1628,7 +2874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -1642,7 +2888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2</v>
       </c>
@@ -1656,7 +2902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>3</v>
       </c>
@@ -1670,7 +2916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>4</v>
       </c>
@@ -1684,7 +2930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>5</v>
       </c>
@@ -1698,7 +2944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>6</v>
       </c>
@@ -1712,7 +2958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>7</v>
       </c>
@@ -1726,7 +2972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>8</v>
       </c>
@@ -1740,7 +2986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>9</v>
       </c>
@@ -1754,7 +3000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>10</v>
       </c>
@@ -1768,7 +3014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>11</v>
       </c>
@@ -1782,7 +3028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>12</v>
       </c>
@@ -1796,7 +3042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>13</v>
       </c>
@@ -1810,7 +3056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>14</v>
       </c>
@@ -1824,7 +3070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>15</v>
       </c>
@@ -1838,7 +3084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>16</v>
       </c>
@@ -1852,7 +3098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>17</v>
       </c>
@@ -1866,7 +3112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>18</v>
       </c>
@@ -1880,7 +3126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>19</v>
       </c>
@@ -1894,7 +3140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>20</v>
       </c>
@@ -1908,7 +3154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>21</v>
       </c>
@@ -1922,7 +3168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>22</v>
       </c>
@@ -1936,7 +3182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>23</v>
       </c>
@@ -1950,7 +3196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>24</v>
       </c>
@@ -1964,7 +3210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>25</v>
       </c>
@@ -1978,7 +3224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>26</v>
       </c>
@@ -1992,7 +3238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>27</v>
       </c>
@@ -2006,7 +3252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>28</v>
       </c>
@@ -2020,7 +3266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>29</v>
       </c>
@@ -2034,7 +3280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>30</v>
       </c>
@@ -2048,7 +3294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>31</v>
       </c>
@@ -2062,7 +3308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>32</v>
       </c>
@@ -2076,7 +3322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>33</v>
       </c>
@@ -2090,7 +3336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>34</v>
       </c>
@@ -2104,7 +3350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>35</v>
       </c>
@@ -2118,7 +3364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>36</v>
       </c>
@@ -2132,7 +3378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>37</v>
       </c>
@@ -2146,7 +3392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -2160,7 +3406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>1</v>
       </c>
@@ -2173,8 +3419,9 @@
       <c r="E51" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>2</v>
       </c>
@@ -2188,7 +3435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>3</v>
       </c>
@@ -2202,7 +3449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>4</v>
       </c>
@@ -2216,7 +3463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>5</v>
       </c>
@@ -2230,7 +3477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>6</v>
       </c>
@@ -2244,7 +3491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>7</v>
       </c>
@@ -2258,7 +3505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>8</v>
       </c>
@@ -2272,7 +3519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>9</v>
       </c>
@@ -2286,7 +3533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>10</v>
       </c>
@@ -2300,7 +3547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>11</v>
       </c>
@@ -2314,7 +3561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>12</v>
       </c>
@@ -2328,7 +3575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>13</v>
       </c>
@@ -2342,7 +3589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>14</v>
       </c>
@@ -2356,7 +3603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>15</v>
       </c>
@@ -2370,7 +3617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>16</v>
       </c>
@@ -2384,7 +3631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>17</v>
       </c>
@@ -2398,7 +3645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>18</v>
       </c>
@@ -2412,7 +3659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>19</v>
       </c>
@@ -2426,7 +3673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>20</v>
       </c>
@@ -2440,7 +3687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>21</v>
       </c>
@@ -2454,7 +3701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>22</v>
       </c>
@@ -2468,7 +3715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>23</v>
       </c>
@@ -2482,7 +3729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>24</v>
       </c>
@@ -2496,7 +3743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>25</v>
       </c>
@@ -2510,7 +3757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>26</v>
       </c>
@@ -2524,7 +3771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>27</v>
       </c>
@@ -2538,7 +3785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>28</v>
       </c>
@@ -2552,7 +3799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>29</v>
       </c>
@@ -2566,7 +3813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>30</v>
       </c>
@@ -2580,7 +3827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>31</v>
       </c>
@@ -2594,7 +3841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>32</v>
       </c>
@@ -2608,7 +3855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>33</v>
       </c>
@@ -2622,7 +3869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>34</v>
       </c>
@@ -2636,7 +3883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>35</v>
       </c>
@@ -2650,7 +3897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>36</v>
       </c>
@@ -2664,7 +3911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>37</v>
       </c>
@@ -2678,7 +3925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>38</v>
       </c>
@@ -2692,7 +3939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>39</v>
       </c>
@@ -2706,7 +3953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>40</v>
       </c>
@@ -2720,7 +3967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>41</v>
       </c>
@@ -2729,1268 +3976,6 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B92">
-        <v>42</v>
-      </c>
-      <c r="C92" s="1">
-        <v>20.5</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B93">
-        <v>43</v>
-      </c>
-      <c r="C93" s="1">
-        <v>21</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B94">
-        <v>44</v>
-      </c>
-      <c r="C94" s="1">
-        <v>21.5</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B95">
-        <v>45</v>
-      </c>
-      <c r="C95" s="1">
-        <v>22</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B96">
-        <v>46</v>
-      </c>
-      <c r="C96" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B97">
-        <v>47</v>
-      </c>
-      <c r="C97" s="1">
-        <v>23</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B98">
-        <v>48</v>
-      </c>
-      <c r="C98" s="1">
-        <v>23.5</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B99">
-        <v>49</v>
-      </c>
-      <c r="C99" s="1">
-        <v>24</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B100">
-        <v>50</v>
-      </c>
-      <c r="C100" s="1">
-        <v>24.5</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B101">
-        <v>51</v>
-      </c>
-      <c r="C101" s="1">
-        <v>25</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B102">
-        <v>52</v>
-      </c>
-      <c r="C102" s="1">
-        <v>25.5</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B103">
-        <v>53</v>
-      </c>
-      <c r="C103" s="1">
-        <v>26</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B104">
-        <v>54</v>
-      </c>
-      <c r="C104" s="1">
-        <v>26.5</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B105">
-        <v>55</v>
-      </c>
-      <c r="C105" s="1">
-        <v>27</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B106">
-        <v>56</v>
-      </c>
-      <c r="C106" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B107">
-        <v>57</v>
-      </c>
-      <c r="C107" s="1">
-        <v>28</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B108">
-        <v>58</v>
-      </c>
-      <c r="C108" s="1">
-        <v>28.5</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B109">
-        <v>59</v>
-      </c>
-      <c r="C109" s="1">
-        <v>29</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B110">
-        <v>60</v>
-      </c>
-      <c r="C110" s="1">
-        <v>29.5</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B111">
-        <v>61</v>
-      </c>
-      <c r="C111" s="1">
-        <v>30</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B112">
-        <v>62</v>
-      </c>
-      <c r="C112" s="1">
-        <v>30.5</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B113">
-        <v>63</v>
-      </c>
-      <c r="C113" s="1">
-        <v>31</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B114">
-        <v>64</v>
-      </c>
-      <c r="C114" s="1">
-        <v>31.5</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B115">
-        <v>65</v>
-      </c>
-      <c r="C115" s="1">
-        <v>32</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B116">
-        <v>66</v>
-      </c>
-      <c r="C116" s="1">
-        <v>32.5</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B117">
-        <v>67</v>
-      </c>
-      <c r="C117" s="1">
-        <v>33</v>
-      </c>
-      <c r="D117" s="2"/>
-      <c r="E117" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B118">
-        <v>68</v>
-      </c>
-      <c r="C118" s="1">
-        <v>33.5</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B119">
-        <v>69</v>
-      </c>
-      <c r="C119" s="1">
-        <v>34</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B120">
-        <v>70</v>
-      </c>
-      <c r="C120" s="1">
-        <v>34.5</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B121">
-        <v>71</v>
-      </c>
-      <c r="C121" s="1">
-        <v>35</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B122">
-        <v>72</v>
-      </c>
-      <c r="C122" s="1">
-        <v>35.5</v>
-      </c>
-      <c r="D122" s="2"/>
-      <c r="E122" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B123">
-        <v>73</v>
-      </c>
-      <c r="C123" s="1">
-        <v>36</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B124">
-        <v>74</v>
-      </c>
-      <c r="C124" s="1">
-        <v>36.5</v>
-      </c>
-      <c r="D124" s="2"/>
-      <c r="E124" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B125">
-        <v>75</v>
-      </c>
-      <c r="C125" s="1">
-        <v>37</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B126">
-        <v>76</v>
-      </c>
-      <c r="C126" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B127">
-        <v>77</v>
-      </c>
-      <c r="C127" s="1">
-        <v>38</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B128">
-        <v>78</v>
-      </c>
-      <c r="C128" s="1">
-        <v>38.5</v>
-      </c>
-      <c r="D128" s="2"/>
-      <c r="E128" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B129">
-        <v>79</v>
-      </c>
-      <c r="C129" s="1">
-        <v>39</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B130">
-        <v>80</v>
-      </c>
-      <c r="C130" s="1">
-        <v>39.5</v>
-      </c>
-      <c r="D130" s="2"/>
-      <c r="E130" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B131">
-        <v>81</v>
-      </c>
-      <c r="C131" s="1">
-        <v>40</v>
-      </c>
-      <c r="D131" s="2"/>
-      <c r="E131" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B132">
-        <v>82</v>
-      </c>
-      <c r="C132" s="1">
-        <v>40.5</v>
-      </c>
-      <c r="D132" s="2"/>
-      <c r="E132" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B133">
-        <v>83</v>
-      </c>
-      <c r="C133" s="1">
-        <v>41</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B134">
-        <v>84</v>
-      </c>
-      <c r="C134" s="1">
-        <v>41.5</v>
-      </c>
-      <c r="D134" s="2"/>
-      <c r="E134" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B135">
-        <v>85</v>
-      </c>
-      <c r="C135" s="1">
-        <v>42</v>
-      </c>
-      <c r="D135" s="2"/>
-      <c r="E135" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B136">
-        <v>86</v>
-      </c>
-      <c r="C136" s="1">
-        <v>42.5</v>
-      </c>
-      <c r="D136" s="2"/>
-      <c r="E136" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B137">
-        <v>87</v>
-      </c>
-      <c r="C137" s="1">
-        <v>43</v>
-      </c>
-      <c r="D137" s="2"/>
-      <c r="E137" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B138">
-        <v>88</v>
-      </c>
-      <c r="C138" s="1">
-        <v>43.5</v>
-      </c>
-      <c r="D138" s="2"/>
-      <c r="E138" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B139">
-        <v>89</v>
-      </c>
-      <c r="C139" s="1">
-        <v>44</v>
-      </c>
-      <c r="D139" s="2"/>
-      <c r="E139" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B140">
-        <v>90</v>
-      </c>
-      <c r="C140" s="1">
-        <v>44.5</v>
-      </c>
-      <c r="D140" s="2"/>
-      <c r="E140" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B141">
-        <v>91</v>
-      </c>
-      <c r="C141" s="1">
-        <v>45</v>
-      </c>
-      <c r="D141" s="2"/>
-      <c r="E141" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B142">
-        <v>92</v>
-      </c>
-      <c r="C142" s="1">
-        <v>45.5</v>
-      </c>
-      <c r="D142" s="2"/>
-      <c r="E142" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B143">
-        <v>93</v>
-      </c>
-      <c r="C143" s="1">
-        <v>46</v>
-      </c>
-      <c r="D143" s="2"/>
-      <c r="E143" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B144">
-        <v>94</v>
-      </c>
-      <c r="C144" s="1">
-        <v>46.5</v>
-      </c>
-      <c r="D144" s="2"/>
-      <c r="E144" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B145">
-        <v>95</v>
-      </c>
-      <c r="C145" s="1">
-        <v>47</v>
-      </c>
-      <c r="D145" s="2"/>
-      <c r="E145" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B146">
-        <v>96</v>
-      </c>
-      <c r="C146" s="1">
-        <v>47.5</v>
-      </c>
-      <c r="D146" s="2"/>
-      <c r="E146" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B147">
-        <v>97</v>
-      </c>
-      <c r="C147" s="1">
-        <v>48</v>
-      </c>
-      <c r="D147" s="2"/>
-      <c r="E147" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B148">
-        <v>98</v>
-      </c>
-      <c r="C148" s="1">
-        <v>48.5</v>
-      </c>
-      <c r="D148" s="2"/>
-      <c r="E148" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B149">
-        <v>99</v>
-      </c>
-      <c r="C149" s="1">
-        <v>49</v>
-      </c>
-      <c r="D149" s="2"/>
-      <c r="E149" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B150">
-        <v>100</v>
-      </c>
-      <c r="C150" s="1">
-        <v>49.5</v>
-      </c>
-      <c r="D150" s="2"/>
-      <c r="E150" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B151">
-        <v>101</v>
-      </c>
-      <c r="C151" s="1">
-        <v>50</v>
-      </c>
-      <c r="D151" s="2"/>
-      <c r="E151" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B152">
-        <v>102</v>
-      </c>
-      <c r="C152" s="1">
-        <v>50.5</v>
-      </c>
-      <c r="D152" s="2"/>
-      <c r="E152" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B153">
-        <v>103</v>
-      </c>
-      <c r="C153" s="1">
-        <v>51</v>
-      </c>
-      <c r="D153" s="2"/>
-      <c r="E153" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B154">
-        <v>104</v>
-      </c>
-      <c r="C154" s="1">
-        <v>51.5</v>
-      </c>
-      <c r="D154" s="2"/>
-      <c r="E154" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B155">
-        <v>105</v>
-      </c>
-      <c r="C155" s="1">
-        <v>52</v>
-      </c>
-      <c r="D155" s="2"/>
-      <c r="E155" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B156">
-        <v>106</v>
-      </c>
-      <c r="C156" s="1">
-        <v>52.5</v>
-      </c>
-      <c r="D156" s="2"/>
-      <c r="E156" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B157">
-        <v>107</v>
-      </c>
-      <c r="C157" s="1">
-        <v>53</v>
-      </c>
-      <c r="D157" s="2"/>
-      <c r="E157" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B158">
-        <v>108</v>
-      </c>
-      <c r="C158" s="1">
-        <v>53.5</v>
-      </c>
-      <c r="D158" s="2"/>
-      <c r="E158" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B159">
-        <v>109</v>
-      </c>
-      <c r="C159" s="1">
-        <v>54</v>
-      </c>
-      <c r="D159" s="2"/>
-      <c r="E159" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B160">
-        <v>110</v>
-      </c>
-      <c r="C160" s="1">
-        <v>54.5</v>
-      </c>
-      <c r="D160" s="2"/>
-      <c r="E160" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B161">
-        <v>111</v>
-      </c>
-      <c r="C161" s="1">
-        <v>55</v>
-      </c>
-      <c r="D161" s="2"/>
-      <c r="E161" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B162">
-        <v>112</v>
-      </c>
-      <c r="C162" s="1">
-        <v>55.5</v>
-      </c>
-      <c r="D162" s="2"/>
-      <c r="E162" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B163">
-        <v>113</v>
-      </c>
-      <c r="C163" s="1">
-        <v>56</v>
-      </c>
-      <c r="D163" s="2"/>
-      <c r="E163" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B164">
-        <v>114</v>
-      </c>
-      <c r="C164" s="1">
-        <v>56.5</v>
-      </c>
-      <c r="D164" s="2"/>
-      <c r="E164" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B165">
-        <v>115</v>
-      </c>
-      <c r="C165" s="1">
-        <v>57</v>
-      </c>
-      <c r="D165" s="2"/>
-      <c r="E165" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B166">
-        <v>116</v>
-      </c>
-      <c r="C166" s="1">
-        <v>57.5</v>
-      </c>
-      <c r="D166" s="2"/>
-      <c r="E166" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B167">
-        <v>117</v>
-      </c>
-      <c r="C167" s="1">
-        <v>58</v>
-      </c>
-      <c r="D167" s="2"/>
-      <c r="E167" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B168">
-        <v>118</v>
-      </c>
-      <c r="C168" s="1">
-        <v>58.5</v>
-      </c>
-      <c r="D168" s="2"/>
-      <c r="E168" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B169">
-        <v>119</v>
-      </c>
-      <c r="C169" s="1">
-        <v>59</v>
-      </c>
-      <c r="D169" s="2"/>
-      <c r="E169" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B170">
-        <v>120</v>
-      </c>
-      <c r="C170" s="1">
-        <v>59.5</v>
-      </c>
-      <c r="D170" s="2"/>
-      <c r="E170" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B171">
-        <v>121</v>
-      </c>
-      <c r="C171" s="1">
-        <v>60</v>
-      </c>
-      <c r="D171" s="2"/>
-      <c r="E171" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B172">
-        <v>122</v>
-      </c>
-      <c r="C172" s="1">
-        <v>60.5</v>
-      </c>
-      <c r="D172" s="2"/>
-      <c r="E172" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B173">
-        <v>123</v>
-      </c>
-      <c r="C173" s="1">
-        <v>61</v>
-      </c>
-      <c r="D173" s="2"/>
-      <c r="E173" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B174">
-        <v>124</v>
-      </c>
-      <c r="C174" s="1">
-        <v>61.5</v>
-      </c>
-      <c r="D174" s="2"/>
-      <c r="E174" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B175">
-        <v>125</v>
-      </c>
-      <c r="C175" s="1">
-        <v>62</v>
-      </c>
-      <c r="D175" s="2"/>
-      <c r="E175" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B176">
-        <v>126</v>
-      </c>
-      <c r="C176" s="1">
-        <v>62.5</v>
-      </c>
-      <c r="D176" s="2"/>
-      <c r="E176" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B177">
-        <v>127</v>
-      </c>
-      <c r="C177" s="1">
-        <v>63</v>
-      </c>
-      <c r="D177" s="2"/>
-      <c r="E177" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B178">
-        <v>128</v>
-      </c>
-      <c r="C178" s="1">
-        <v>63.5</v>
-      </c>
-      <c r="D178" s="2"/>
-      <c r="E178" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B179">
-        <v>129</v>
-      </c>
-      <c r="C179" s="1">
-        <v>64</v>
-      </c>
-      <c r="D179" s="2"/>
-      <c r="E179" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B180">
-        <v>130</v>
-      </c>
-      <c r="C180" s="1">
-        <v>64.5</v>
-      </c>
-      <c r="D180" s="2"/>
-      <c r="E180" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B181">
-        <v>131</v>
-      </c>
-      <c r="C181" s="1">
-        <v>65</v>
-      </c>
-      <c r="D181" s="2"/>
-      <c r="E181" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B182">
-        <v>132</v>
-      </c>
-      <c r="C182" s="1">
-        <v>65.5</v>
-      </c>
-      <c r="D182" s="2"/>
-      <c r="E182" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B183">
-        <v>133</v>
-      </c>
-      <c r="C183" s="1">
-        <v>66</v>
-      </c>
-      <c r="D183" s="2"/>
-      <c r="E183" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B184">
-        <v>134</v>
-      </c>
-      <c r="C184" s="1">
-        <v>66.5</v>
-      </c>
-      <c r="D184" s="2"/>
-      <c r="E184" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B185">
-        <v>135</v>
-      </c>
-      <c r="C185" s="1">
-        <v>67</v>
-      </c>
-      <c r="D185" s="2"/>
-      <c r="E185" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B186">
-        <v>136</v>
-      </c>
-      <c r="C186" s="1">
-        <v>67.5</v>
-      </c>
-      <c r="D186" s="2"/>
-      <c r="E186" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B187">
-        <v>137</v>
-      </c>
-      <c r="C187" s="1">
-        <v>68</v>
-      </c>
-      <c r="D187" s="2"/>
-      <c r="E187" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B188">
-        <v>138</v>
-      </c>
-      <c r="C188" s="1"/>
-      <c r="D188" s="2"/>
-      <c r="E188" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B189">
-        <v>139</v>
-      </c>
-      <c r="C189" s="1"/>
-      <c r="D189" s="2"/>
-      <c r="E189" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B190">
-        <v>140</v>
-      </c>
-      <c r="C190" s="1"/>
-      <c r="D190" s="2"/>
-      <c r="E190" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B191">
-        <v>141</v>
-      </c>
-      <c r="C191" s="1"/>
-      <c r="D191" s="2"/>
-      <c r="E191" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B192">
-        <v>142</v>
-      </c>
-      <c r="C192" s="1"/>
-      <c r="D192" s="2"/>
-      <c r="E192" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B193">
-        <v>143</v>
-      </c>
-      <c r="C193" s="1"/>
-      <c r="D193" s="2"/>
-      <c r="E193" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B194">
-        <v>144</v>
-      </c>
-      <c r="C194" s="1"/>
-      <c r="D194" s="2"/>
-      <c r="E194" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B195">
-        <v>145</v>
-      </c>
-      <c r="C195" s="1"/>
-      <c r="D195" s="2"/>
-      <c r="E195" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B196">
-        <v>146</v>
-      </c>
-      <c r="C196" s="1"/>
-      <c r="D196" s="2"/>
-      <c r="E196" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B197">
-        <v>147</v>
-      </c>
-      <c r="C197" s="1"/>
-      <c r="D197" s="2"/>
-      <c r="E197" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B198">
-        <v>148</v>
-      </c>
-      <c r="C198" s="1"/>
-      <c r="D198" s="2"/>
-      <c r="E198" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Spraw3/lab3.xlsx
+++ b/Spraw3/lab3.xlsx
@@ -8,24 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnb\Documents\Uczelnia\Semestr 3\FIZ31\Spraw3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32CD32E-2590-4C07-813D-58BABEAA4666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9425FD-35B0-4E25-BFF2-724F1B83DC42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="6">
   <si>
     <t>Temp[C]</t>
   </si>
@@ -49,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,8 +77,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +103,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -99,18 +118,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Dobry" xfId="3" builtinId="26"/>
     <cellStyle name="Neutralny" xfId="2" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Zły" xfId="1" builtinId="27"/>
@@ -203,7 +225,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.0217904968646569E-2"/>
+          <c:y val="0.10343306362132679"/>
+          <c:w val="0.96978209503135337"/>
+          <c:h val="0.8467067928792178"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -214,30 +246,42 @@
             <c:v>U[V]</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+            <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dPt>
             <c:idx val="16"/>
             <c:marker>
               <c:symbol val="circle"/>
-              <c:size val="6"/>
+              <c:size val="3"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
+                  <a:noFill/>
                   <a:round/>
                 </a:ln>
                 <a:effectLst/>
@@ -563,6 +607,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="579632064"/>
         <c:axId val="573609232"/>
@@ -765,6 +810,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>U(TIME)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -803,9 +873,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>t</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
@@ -816,7 +883,12 @@
               </a:solidFill>
               <a:miter lim="800000"/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000"/>
+              </a:outerShdw>
+              <a:softEdge rad="0"/>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -826,12 +898,15 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+                <a:noFill/>
                 <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000"/>
+                </a:outerShdw>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:dLbls>
@@ -876,15 +951,71 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-1350-4601-BE6D-9A507AD9A2EB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="59"/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="3.9245928725468844E-2"/>
-                      <c:h val="3.2808398950131233E-2"/>
+                      <c:w val="2.9456631529326933E-2"/>
+                      <c:h val="1.5312838092045896E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-1350-4601-BE6D-9A507AD9A2EB}"/>
+                  <c16:uniqueId val="{00000000-582E-4FE5-A437-A84E9B6D76AE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -947,10 +1078,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Arkusz1!$C$51:$C$90</c:f>
+              <c:f>Arkusz1!$C$51:$C$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1070,16 +1201,79 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$D$51:$D$90</c:f>
+              <c:f>Arkusz1!$D$51:$D$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>3.23</c:v>
                 </c:pt>
@@ -1199,6 +1393,69 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1245,6 +1502,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>t[MIN]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1312,6 +1624,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>U[V]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2516,16 +2883,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38671</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>16300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>473703</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>102890</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2552,16 +2919,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>383615</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>85411</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>22961</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>16008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>86351</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>161611</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>494660</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>125457</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2852,10 +3219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B6:G91"/>
+  <dimension ref="B6:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B45" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3392,7 +3759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -3406,7 +3773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>1</v>
       </c>
@@ -3419,9 +3786,14 @@
       <c r="E51" t="s">
         <v>3</v>
       </c>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f>C51*60</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>2</v>
       </c>
@@ -3434,8 +3806,13 @@
       <c r="E52" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f t="shared" ref="F52:H111" si="0">C52*60</f>
+        <v>30</v>
+      </c>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>3</v>
       </c>
@@ -3448,8 +3825,13 @@
       <c r="E53" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>4</v>
       </c>
@@ -3462,8 +3844,13 @@
       <c r="E54" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>5</v>
       </c>
@@ -3476,8 +3863,13 @@
       <c r="E55" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>6</v>
       </c>
@@ -3490,8 +3882,13 @@
       <c r="E56" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>7</v>
       </c>
@@ -3504,8 +3901,13 @@
       <c r="E57" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>8</v>
       </c>
@@ -3518,8 +3920,13 @@
       <c r="E58" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>9</v>
       </c>
@@ -3532,8 +3939,13 @@
       <c r="E59" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>10</v>
       </c>
@@ -3546,8 +3958,13 @@
       <c r="E60" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>11</v>
       </c>
@@ -3560,8 +3977,13 @@
       <c r="E61" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>12</v>
       </c>
@@ -3574,8 +3996,13 @@
       <c r="E62" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>13</v>
       </c>
@@ -3588,8 +4015,13 @@
       <c r="E63" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>14</v>
       </c>
@@ -3602,8 +4034,13 @@
       <c r="E64" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>15</v>
       </c>
@@ -3616,8 +4053,13 @@
       <c r="E65" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>16</v>
       </c>
@@ -3630,8 +4072,13 @@
       <c r="E66" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>17</v>
       </c>
@@ -3644,8 +4091,13 @@
       <c r="E67" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>18</v>
       </c>
@@ -3658,8 +4110,13 @@
       <c r="E68" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>19</v>
       </c>
@@ -3672,8 +4129,13 @@
       <c r="E69" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>20</v>
       </c>
@@ -3686,8 +4148,13 @@
       <c r="E70" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f t="shared" si="0"/>
+        <v>570</v>
+      </c>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>21</v>
       </c>
@@ -3700,8 +4167,13 @@
       <c r="E71" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>22</v>
       </c>
@@ -3714,8 +4186,13 @@
       <c r="E72" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>23</v>
       </c>
@@ -3728,8 +4205,13 @@
       <c r="E73" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <f t="shared" si="0"/>
+        <v>660</v>
+      </c>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>24</v>
       </c>
@@ -3742,8 +4224,13 @@
       <c r="E74" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <f t="shared" si="0"/>
+        <v>690</v>
+      </c>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>25</v>
       </c>
@@ -3756,8 +4243,13 @@
       <c r="E75" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>26</v>
       </c>
@@ -3770,8 +4262,13 @@
       <c r="E76" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>27</v>
       </c>
@@ -3784,8 +4281,13 @@
       <c r="E77" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <f t="shared" si="0"/>
+        <v>780</v>
+      </c>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>28</v>
       </c>
@@ -3798,8 +4300,13 @@
       <c r="E78" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <f t="shared" si="0"/>
+        <v>810</v>
+      </c>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>29</v>
       </c>
@@ -3812,8 +4319,13 @@
       <c r="E79" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>30</v>
       </c>
@@ -3826,8 +4338,13 @@
       <c r="E80" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <f t="shared" si="0"/>
+        <v>870</v>
+      </c>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>31</v>
       </c>
@@ -3840,8 +4357,13 @@
       <c r="E81" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>32</v>
       </c>
@@ -3854,8 +4376,13 @@
       <c r="E82" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <f t="shared" si="0"/>
+        <v>930</v>
+      </c>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>33</v>
       </c>
@@ -3868,8 +4395,13 @@
       <c r="E83" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>34</v>
       </c>
@@ -3882,8 +4414,13 @@
       <c r="E84" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <f t="shared" si="0"/>
+        <v>990</v>
+      </c>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>35</v>
       </c>
@@ -3896,8 +4433,13 @@
       <c r="E85" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <f t="shared" si="0"/>
+        <v>1020</v>
+      </c>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>36</v>
       </c>
@@ -3910,8 +4452,13 @@
       <c r="E86" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>37</v>
       </c>
@@ -3924,8 +4471,13 @@
       <c r="E87" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>38</v>
       </c>
@@ -3938,8 +4490,13 @@
       <c r="E88" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <f t="shared" si="0"/>
+        <v>1110</v>
+      </c>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>39</v>
       </c>
@@ -3952,8 +4509,13 @@
       <c r="E89" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <f t="shared" si="0"/>
+        <v>1140</v>
+      </c>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>40</v>
       </c>
@@ -3966,18 +4528,410 @@
       <c r="E90" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <f t="shared" si="0"/>
+        <v>1170</v>
+      </c>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>41</v>
       </c>
       <c r="C91" s="1">
         <v>20</v>
       </c>
-      <c r="D91" s="2"/>
+      <c r="D91" s="2">
+        <v>1.49</v>
+      </c>
       <c r="E91" t="s">
         <v>3</v>
       </c>
+      <c r="F91">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>42</v>
+      </c>
+      <c r="C92" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="E92" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="0"/>
+        <v>1230</v>
+      </c>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>43</v>
+      </c>
+      <c r="C93" s="1">
+        <v>21</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="E93" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="0"/>
+        <v>1260</v>
+      </c>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>44</v>
+      </c>
+      <c r="C94" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="D94" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="E94" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="0"/>
+        <v>1290</v>
+      </c>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>45</v>
+      </c>
+      <c r="C95" s="1">
+        <v>22</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1.48</v>
+      </c>
+      <c r="E95" t="s">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="0"/>
+        <v>1320</v>
+      </c>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>46</v>
+      </c>
+      <c r="C96" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1.48</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="0"/>
+        <v>1350</v>
+      </c>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>47</v>
+      </c>
+      <c r="C97" s="1">
+        <v>23</v>
+      </c>
+      <c r="D97" s="2">
+        <v>1.48</v>
+      </c>
+      <c r="E97" t="s">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>48</v>
+      </c>
+      <c r="C98" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="D98" s="2">
+        <v>1.48</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="0"/>
+        <v>1410</v>
+      </c>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>49</v>
+      </c>
+      <c r="C99" s="1">
+        <v>24</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1.48</v>
+      </c>
+      <c r="E99" t="s">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="0"/>
+        <v>1440</v>
+      </c>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>50</v>
+      </c>
+      <c r="C100" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1.48</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="0"/>
+        <v>1470</v>
+      </c>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>51</v>
+      </c>
+      <c r="C101" s="1">
+        <v>25</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1.47</v>
+      </c>
+      <c r="E101" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <f>C101*60</f>
+        <v>1500</v>
+      </c>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>52</v>
+      </c>
+      <c r="C102" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="D102" s="2">
+        <v>1.47</v>
+      </c>
+      <c r="E102" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="0"/>
+        <v>1530</v>
+      </c>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>53</v>
+      </c>
+      <c r="C103" s="1">
+        <v>26</v>
+      </c>
+      <c r="D103" s="2">
+        <v>1.47</v>
+      </c>
+      <c r="E103" t="s">
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="0"/>
+        <v>1560</v>
+      </c>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>54</v>
+      </c>
+      <c r="C104" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="D104" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="E104" t="s">
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="0"/>
+        <v>1590</v>
+      </c>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>55</v>
+      </c>
+      <c r="C105" s="1">
+        <v>27</v>
+      </c>
+      <c r="D105" s="2">
+        <v>1.47</v>
+      </c>
+      <c r="E105" t="s">
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="0"/>
+        <v>1620</v>
+      </c>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>56</v>
+      </c>
+      <c r="C106" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="D106" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="E106" t="s">
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="0"/>
+        <v>1650</v>
+      </c>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>57</v>
+      </c>
+      <c r="C107" s="1">
+        <v>28</v>
+      </c>
+      <c r="D107" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="E107" t="s">
+        <v>3</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="0"/>
+        <v>1680</v>
+      </c>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>58</v>
+      </c>
+      <c r="C108" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="E108" t="s">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="0"/>
+        <v>1710</v>
+      </c>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>59</v>
+      </c>
+      <c r="C109" s="1">
+        <v>29</v>
+      </c>
+      <c r="D109" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="E109" t="s">
+        <v>3</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="0"/>
+        <v>1740</v>
+      </c>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>60</v>
+      </c>
+      <c r="C110" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="D110" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="E110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="0"/>
+        <v>1770</v>
+      </c>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>61</v>
+      </c>
+      <c r="C111" s="1">
+        <v>30</v>
+      </c>
+      <c r="D111" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="E111" t="s">
+        <v>3</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="G111" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Spraw3/lab3.xlsx
+++ b/Spraw3/lab3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnb\Documents\Uczelnia\Semestr 3\FIZ31\Spraw3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9425FD-35B0-4E25-BFF2-724F1B83DC42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B91BC9-D578-4AC0-AEA2-B94237B0D279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="7">
   <si>
     <t>Temp[C]</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Czas[min]</t>
+  </si>
+  <si>
+    <t>Czas[s]</t>
   </si>
 </sst>
 </file>
@@ -184,12 +187,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>U</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>(Temp)</a:t>
+              <a:t>WYKRES NAPIECIA OD TEMPERATURY [C]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -230,8 +229,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.0217904968646569E-2"/>
-          <c:y val="0.10343306362132679"/>
+          <c:x val="2.2631013833522996E-2"/>
+          <c:y val="9.32126733246956E-2"/>
           <c:w val="0.96978209503135337"/>
           <c:h val="0.8467067928792178"/>
         </c:manualLayout>
@@ -623,9 +622,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
                   <a:alpha val="32000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -634,6 +632,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>T[C]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -690,9 +743,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
                   <a:alpha val="32000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -701,6 +753,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>U[V]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -829,9 +936,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>U(TIME)</a:t>
+              <a:rPr lang="pl-PL"/>
+              <a:t>wYKRES NAPIECIA OD CZASU</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -843,26 +951,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -955,10 +1043,6 @@
                     <a:prstGeom prst="rect">
                       <a:avLst/>
                     </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1007,12 +1091,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="2.9456631529326933E-2"/>
-                      <c:h val="1.5312838092045896E-2"/>
-                    </c:manualLayout>
-                  </c15:layout>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-582E-4FE5-A437-A84E9B6D76AE}"/>
@@ -1078,7 +1161,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Arkusz1!$C$51:$C$111</c:f>
+              <c:f>Arkusz1!$F$51:$F$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -1086,184 +1169,184 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.5</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.5</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.5</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.5</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.5</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11.5</c:v>
+                  <c:v>690</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.5</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13</c:v>
+                  <c:v>780</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13.5</c:v>
+                  <c:v>810</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14</c:v>
+                  <c:v>840</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14.5</c:v>
+                  <c:v>870</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>15</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15.5</c:v>
+                  <c:v>930</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>16</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16.5</c:v>
+                  <c:v>990</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>17</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>17.5</c:v>
+                  <c:v>1050</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>18</c:v>
+                  <c:v>1080</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>18.5</c:v>
+                  <c:v>1110</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>19</c:v>
+                  <c:v>1140</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>19.5</c:v>
+                  <c:v>1170</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>20</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>20.5</c:v>
+                  <c:v>1230</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>21</c:v>
+                  <c:v>1260</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>21.5</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>22</c:v>
+                  <c:v>1320</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22.5</c:v>
+                  <c:v>1350</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>23</c:v>
+                  <c:v>1380</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>23.5</c:v>
+                  <c:v>1410</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>24</c:v>
+                  <c:v>1440</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>24.5</c:v>
+                  <c:v>1470</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>25</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>25.5</c:v>
+                  <c:v>1530</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>26</c:v>
+                  <c:v>1560</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>26.5</c:v>
+                  <c:v>1590</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>27</c:v>
+                  <c:v>1620</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>27.5</c:v>
+                  <c:v>1650</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>28</c:v>
+                  <c:v>1680</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>28.5</c:v>
+                  <c:v>1710</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>29</c:v>
+                  <c:v>1740</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>29.5</c:v>
+                  <c:v>1770</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>30</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1464,6 +1547,149 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1350-4601-BE6D-9A507AD9A2EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$M$51:$M$57</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:forward val="33"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.039135610065104E-3"/>
+                  <c:y val="6.5042263470205905E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>y = -0,0857x + 3,2414</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$N$51:$N$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CC89-4CDF-AC8C-4D0CD7EE585D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1536,26 +1762,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1576,7 +1782,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1600,6 +1806,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -1658,26 +1865,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1774,46 +1961,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2366,533 +2513,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="237">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-        <a:tailEnd type="none" w="med" len="lg"/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:alpha val="32000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-            <a:alpha val="32000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-        <a:tailEnd type="none" w="med" len="lg"/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="rnd"/>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-        <a:tailEnd type="none" w="med" len="lg"/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>38671</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>62484</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>16300</xdr:rowOff>
+      <xdr:rowOff>63925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>473703</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>102890</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>497516</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2919,16 +2553,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>22961</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>16008</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>247479</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>494660</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>106857</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>125457</xdr:rowOff>
+      <xdr:rowOff>23404</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3219,10 +2853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B6:H111"/>
+  <dimension ref="B6:S111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="J35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3759,7 +3393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -3772,8 +3406,11 @@
       <c r="E50" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>1</v>
       </c>
@@ -3792,8 +3429,38 @@
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <f t="array" ref="I51:K57">LINEST(C51:C57,D51:D57,TRUE,TRUE)</f>
+        <v>-5.4623488099882964</v>
+      </c>
+      <c r="J51">
+        <v>17.33300819352322</v>
+      </c>
+      <c r="K51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+      <c r="N51" s="2">
+        <v>3.23</v>
+      </c>
+      <c r="O51" t="s">
+        <v>3</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="4"/>
+      <c r="R51">
+        <f t="array" ref="R51:S55">LINEST(M51:M57,N51:N57,TRUE,TRUE)</f>
+        <v>-327.74092859929777</v>
+      </c>
+      <c r="S51">
+        <v>1039.9804916113931</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>2</v>
       </c>
@@ -3807,12 +3474,40 @@
         <v>3</v>
       </c>
       <c r="F52">
-        <f t="shared" ref="F52:H111" si="0">C52*60</f>
+        <f t="shared" ref="F52:F111" si="0">C52*60</f>
         <v>30</v>
       </c>
       <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <v>0.63662341609743667</v>
+      </c>
+      <c r="J52">
+        <v>1.8487416853727452</v>
+      </c>
+      <c r="K52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M52" s="1">
+        <v>30</v>
+      </c>
+      <c r="N52" s="2">
+        <v>3.05</v>
+      </c>
+      <c r="O52" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52">
+        <v>30</v>
+      </c>
+      <c r="Q52" s="4"/>
+      <c r="R52">
+        <v>38.197404965846189</v>
+      </c>
+      <c r="S52">
+        <v>110.92450112236469</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>3</v>
       </c>
@@ -3830,8 +3525,36 @@
         <v>60</v>
       </c>
       <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>0.93640265314085036</v>
+      </c>
+      <c r="J53">
+        <v>0.29838948641466806</v>
+      </c>
+      <c r="K53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M53" s="1">
+        <v>60</v>
+      </c>
+      <c r="N53" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="O53" t="s">
+        <v>3</v>
+      </c>
+      <c r="P53">
+        <v>60</v>
+      </c>
+      <c r="Q53" s="4"/>
+      <c r="R53">
+        <v>0.93640265314085047</v>
+      </c>
+      <c r="S53">
+        <v>17.903369184880081</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>4</v>
       </c>
@@ -3849,8 +3572,36 @@
         <v>90</v>
       </c>
       <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>73.619631901840336</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M54" s="1">
+        <v>90</v>
+      </c>
+      <c r="N54" s="2">
+        <v>2.85</v>
+      </c>
+      <c r="O54" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54">
+        <v>90</v>
+      </c>
+      <c r="Q54" s="4"/>
+      <c r="R54">
+        <v>73.619631901840364</v>
+      </c>
+      <c r="S54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>5</v>
       </c>
@@ -3868,8 +3619,36 @@
         <v>120</v>
       </c>
       <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>6.5548185719859529</v>
+      </c>
+      <c r="J55">
+        <v>0.44518142801404686</v>
+      </c>
+      <c r="K55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M55" s="1">
+        <v>120</v>
+      </c>
+      <c r="N55" s="2">
+        <v>2.78</v>
+      </c>
+      <c r="O55" t="s">
+        <v>3</v>
+      </c>
+      <c r="P55">
+        <v>120</v>
+      </c>
+      <c r="Q55" s="4"/>
+      <c r="R55">
+        <v>23597.346859149431</v>
+      </c>
+      <c r="S55">
+        <v>1602.6531408505682</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>6</v>
       </c>
@@ -3887,8 +3666,30 @@
         <v>150</v>
       </c>
       <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M56" s="1">
+        <v>150</v>
+      </c>
+      <c r="N56" s="2">
+        <v>2.73</v>
+      </c>
+      <c r="O56" t="s">
+        <v>3</v>
+      </c>
+      <c r="P56">
+        <v>150</v>
+      </c>
+      <c r="Q56" s="4"/>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>7</v>
       </c>
@@ -3906,8 +3707,30 @@
         <v>180</v>
       </c>
       <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M57" s="1">
+        <v>180</v>
+      </c>
+      <c r="N57" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="O57" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57">
+        <v>180</v>
+      </c>
+      <c r="Q57" s="4"/>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>8</v>
       </c>
@@ -3925,8 +3748,21 @@
         <v>210</v>
       </c>
       <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="M58" s="1">
+        <v>210</v>
+      </c>
+      <c r="N58" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="O58" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58">
+        <v>210</v>
+      </c>
+      <c r="Q58" s="1"/>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>9</v>
       </c>
@@ -3944,8 +3780,21 @@
         <v>240</v>
       </c>
       <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="M59" s="1">
+        <v>240</v>
+      </c>
+      <c r="N59" s="2">
+        <v>2.66</v>
+      </c>
+      <c r="O59" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59">
+        <v>240</v>
+      </c>
+      <c r="Q59" s="1"/>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>10</v>
       </c>
@@ -3963,8 +3812,21 @@
         <v>270</v>
       </c>
       <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="M60" s="1">
+        <v>270</v>
+      </c>
+      <c r="N60" s="2">
+        <v>2.64</v>
+      </c>
+      <c r="O60" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60">
+        <v>270</v>
+      </c>
+      <c r="Q60" s="1"/>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>11</v>
       </c>
@@ -3982,8 +3844,21 @@
         <v>300</v>
       </c>
       <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="M61" s="1">
+        <v>300</v>
+      </c>
+      <c r="N61" s="2">
+        <v>2.62</v>
+      </c>
+      <c r="O61" t="s">
+        <v>3</v>
+      </c>
+      <c r="P61">
+        <v>300</v>
+      </c>
+      <c r="Q61" s="1"/>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>12</v>
       </c>
@@ -4001,8 +3876,21 @@
         <v>330</v>
       </c>
       <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="M62" s="1">
+        <v>330</v>
+      </c>
+      <c r="N62" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="O62" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62">
+        <v>330</v>
+      </c>
+      <c r="Q62" s="1"/>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>13</v>
       </c>
@@ -4020,8 +3908,21 @@
         <v>360</v>
       </c>
       <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="M63" s="1">
+        <v>360</v>
+      </c>
+      <c r="N63" s="2">
+        <v>2.57</v>
+      </c>
+      <c r="O63" t="s">
+        <v>3</v>
+      </c>
+      <c r="P63">
+        <v>360</v>
+      </c>
+      <c r="Q63" s="1"/>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>14</v>
       </c>
@@ -4039,8 +3940,21 @@
         <v>390</v>
       </c>
       <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="M64" s="1">
+        <v>390</v>
+      </c>
+      <c r="N64" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="O64" t="s">
+        <v>3</v>
+      </c>
+      <c r="P64">
+        <v>390</v>
+      </c>
+      <c r="Q64" s="1"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>15</v>
       </c>
@@ -4058,8 +3972,21 @@
         <v>420</v>
       </c>
       <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="M65" s="1">
+        <v>420</v>
+      </c>
+      <c r="N65" s="2">
+        <v>2.52</v>
+      </c>
+      <c r="O65" t="s">
+        <v>3</v>
+      </c>
+      <c r="P65">
+        <v>420</v>
+      </c>
+      <c r="Q65" s="1"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>16</v>
       </c>
@@ -4077,8 +4004,21 @@
         <v>450</v>
       </c>
       <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="M66" s="1">
+        <v>450</v>
+      </c>
+      <c r="N66" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="O66" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66">
+        <v>450</v>
+      </c>
+      <c r="Q66" s="1"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>17</v>
       </c>
@@ -4096,8 +4036,21 @@
         <v>480</v>
       </c>
       <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="M67" s="1">
+        <v>480</v>
+      </c>
+      <c r="N67" s="2">
+        <v>2.44</v>
+      </c>
+      <c r="O67" t="s">
+        <v>3</v>
+      </c>
+      <c r="P67">
+        <v>480</v>
+      </c>
+      <c r="Q67" s="4"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>18</v>
       </c>
@@ -4115,8 +4068,21 @@
         <v>510</v>
       </c>
       <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="M68" s="1">
+        <v>510</v>
+      </c>
+      <c r="N68" s="2">
+        <v>2.38</v>
+      </c>
+      <c r="O68" t="s">
+        <v>3</v>
+      </c>
+      <c r="P68">
+        <v>510</v>
+      </c>
+      <c r="Q68" s="4"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>19</v>
       </c>
@@ -4134,8 +4100,21 @@
         <v>540</v>
       </c>
       <c r="G69" s="4"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="M69" s="1">
+        <v>540</v>
+      </c>
+      <c r="N69" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="O69" t="s">
+        <v>3</v>
+      </c>
+      <c r="P69">
+        <v>540</v>
+      </c>
+      <c r="Q69" s="4"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>20</v>
       </c>
@@ -4153,8 +4132,21 @@
         <v>570</v>
       </c>
       <c r="G70" s="4"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="M70" s="1">
+        <v>570</v>
+      </c>
+      <c r="N70" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="O70" t="s">
+        <v>3</v>
+      </c>
+      <c r="P70">
+        <v>570</v>
+      </c>
+      <c r="Q70" s="4"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>21</v>
       </c>
@@ -4172,8 +4164,21 @@
         <v>600</v>
       </c>
       <c r="G71" s="4"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="M71" s="1">
+        <v>600</v>
+      </c>
+      <c r="N71" s="2">
+        <v>2.06</v>
+      </c>
+      <c r="O71" t="s">
+        <v>3</v>
+      </c>
+      <c r="P71">
+        <v>600</v>
+      </c>
+      <c r="Q71" s="4"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>22</v>
       </c>
@@ -4191,8 +4196,21 @@
         <v>630</v>
       </c>
       <c r="G72" s="4"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="M72" s="1">
+        <v>630</v>
+      </c>
+      <c r="N72" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="O72" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72">
+        <v>630</v>
+      </c>
+      <c r="Q72" s="4"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>23</v>
       </c>
@@ -4210,8 +4228,21 @@
         <v>660</v>
       </c>
       <c r="G73" s="4"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="M73" s="1">
+        <v>660</v>
+      </c>
+      <c r="N73" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="O73" t="s">
+        <v>3</v>
+      </c>
+      <c r="P73">
+        <v>660</v>
+      </c>
+      <c r="Q73" s="4"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>24</v>
       </c>
@@ -4229,8 +4260,21 @@
         <v>690</v>
       </c>
       <c r="G74" s="4"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="M74" s="1">
+        <v>690</v>
+      </c>
+      <c r="N74" s="2">
+        <v>1.79</v>
+      </c>
+      <c r="O74" t="s">
+        <v>3</v>
+      </c>
+      <c r="P74">
+        <v>690</v>
+      </c>
+      <c r="Q74" s="4"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>25</v>
       </c>
@@ -4248,8 +4292,21 @@
         <v>720</v>
       </c>
       <c r="G75" s="4"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="M75" s="1">
+        <v>720</v>
+      </c>
+      <c r="N75" s="2">
+        <v>1.73</v>
+      </c>
+      <c r="O75" t="s">
+        <v>3</v>
+      </c>
+      <c r="P75">
+        <v>720</v>
+      </c>
+      <c r="Q75" s="4"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>26</v>
       </c>
@@ -4267,8 +4324,21 @@
         <v>750</v>
       </c>
       <c r="G76" s="4"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="M76" s="1">
+        <v>750</v>
+      </c>
+      <c r="N76" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="O76" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76">
+        <v>750</v>
+      </c>
+      <c r="Q76" s="4"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>27</v>
       </c>
@@ -4286,8 +4356,21 @@
         <v>780</v>
       </c>
       <c r="G77" s="4"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="M77" s="1">
+        <v>780</v>
+      </c>
+      <c r="N77" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="O77" t="s">
+        <v>3</v>
+      </c>
+      <c r="P77">
+        <v>780</v>
+      </c>
+      <c r="Q77" s="4"/>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>28</v>
       </c>
@@ -4305,8 +4388,21 @@
         <v>810</v>
       </c>
       <c r="G78" s="4"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="M78" s="1">
+        <v>810</v>
+      </c>
+      <c r="N78" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="O78" t="s">
+        <v>3</v>
+      </c>
+      <c r="P78">
+        <v>810</v>
+      </c>
+      <c r="Q78" s="4"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>29</v>
       </c>
@@ -4324,8 +4420,21 @@
         <v>840</v>
       </c>
       <c r="G79" s="4"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="M79" s="1">
+        <v>840</v>
+      </c>
+      <c r="N79" s="2">
+        <v>1.59</v>
+      </c>
+      <c r="O79" t="s">
+        <v>3</v>
+      </c>
+      <c r="P79">
+        <v>840</v>
+      </c>
+      <c r="Q79" s="4"/>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>30</v>
       </c>
